--- a/academycity/data/avic/datasets/excel/conference/output/HighTech/2018_Tertiary_o.xlsx
+++ b/academycity/data/avic/datasets/excel/conference/output/HighTech/2018_Tertiary_o.xlsx
@@ -1947,7 +1947,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -3668,7 +3668,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -8205,7 +8205,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C122" t="n">
